--- a/Active_ED_Visit_Data_Check_10_6_16_testing.xlsx
+++ b/Active_ED_Visit_Data_Check_10_6_16_testing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="206">
   <si>
     <t>Study ID</t>
   </si>
@@ -511,9 +511,6 @@
     <t>What was the final subject disposition for this visit?</t>
   </si>
   <si>
-    <t>Specify:</t>
-  </si>
-  <si>
     <t>If this subject had a final disposition of discharge, at any time during this visit were they placed in observation?</t>
   </si>
   <si>
@@ -589,9 +586,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t xml:space="preserve">screened and left </t>
-  </si>
-  <si>
     <t>01-11-A-0003</t>
   </si>
   <si>
@@ -635,6 +629,9 @@
   </si>
   <si>
     <t>99:99</t>
+  </si>
+  <si>
+    <t>9/9/999</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1115,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1471,15 +1469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMQ6"/>
+  <dimension ref="A1:AMP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1031" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1030" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2018,3476 +2016,3464 @@
         <v>165</v>
       </c>
       <c r="FX1" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="FY1" t="s">
+        <v>10</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>13</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>14</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>15</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>16</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>17</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>18</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>19</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>20</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>21</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>22</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>23</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>24</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>25</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>26</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>27</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>28</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>29</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>30</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>31</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>32</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>33</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>34</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>35</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>36</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>37</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>38</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>39</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>40</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>41</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>42</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>43</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>44</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>45</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>46</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>48</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>39</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>40</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>49</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>50</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>51</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>53</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>54</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>55</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>56</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>39</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>40</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>57</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>58</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>59</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>60</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>61</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>62</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>63</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>64</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>39</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>40</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>65</v>
+      </c>
+      <c r="II1" t="s">
+        <v>66</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>68</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>69</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>70</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>71</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>72</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>73</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>74</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>75</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>76</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>77</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>78</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>79</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>80</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="JA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="JB1" t="s">
+        <v>81</v>
+      </c>
+      <c r="JC1" t="s">
+        <v>82</v>
+      </c>
+      <c r="JD1" t="s">
+        <v>83</v>
+      </c>
+      <c r="JE1" t="s">
+        <v>84</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>85</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>86</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>87</v>
+      </c>
+      <c r="JI1" t="s">
+        <v>88</v>
+      </c>
+      <c r="JJ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="JK1" t="s">
+        <v>40</v>
+      </c>
+      <c r="JL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="JM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="JN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="JO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="JP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="JQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="JR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="JS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="JT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="JU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="JV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="JW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="JX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="JY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="JZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="KA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="KB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="KC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="KD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="KE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="KF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="KG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="KH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="KI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="KJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="KK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="KL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="KM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="KN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="KO1" t="s">
+        <v>118</v>
+      </c>
+      <c r="KP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="KQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="KR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="KS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="KT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="KU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="KV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="KW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="KX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="KY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="KZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="LA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="LB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="LC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="LD1" t="s">
+        <v>133</v>
+      </c>
+      <c r="LE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="LF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="LG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="LH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="LI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="LJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="LK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="LL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="LM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="LN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="LO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="LP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="LQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="LR1" t="s">
+        <v>147</v>
+      </c>
+      <c r="LS1" t="s">
+        <v>148</v>
+      </c>
+      <c r="LT1" t="s">
+        <v>149</v>
+      </c>
+      <c r="LU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="LV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="LW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="LX1" t="s">
+        <v>20</v>
+      </c>
+      <c r="LY1" t="s">
+        <v>153</v>
+      </c>
+      <c r="LZ1" t="s">
+        <v>154</v>
+      </c>
+      <c r="MA1" t="s">
+        <v>155</v>
+      </c>
+      <c r="MB1" t="s">
+        <v>156</v>
+      </c>
+      <c r="MC1" t="s">
+        <v>157</v>
+      </c>
+      <c r="MD1" t="s">
+        <v>158</v>
+      </c>
+      <c r="ME1" t="s">
+        <v>159</v>
+      </c>
+      <c r="MF1" t="s">
+        <v>160</v>
+      </c>
+      <c r="MG1" t="s">
+        <v>161</v>
+      </c>
+      <c r="MH1" t="s">
+        <v>162</v>
+      </c>
+      <c r="MI1" t="s">
+        <v>163</v>
+      </c>
+      <c r="MJ1" t="s">
+        <v>164</v>
+      </c>
+      <c r="MK1" t="s">
+        <v>165</v>
+      </c>
+      <c r="ML1" t="s">
         <v>9</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="MM1" t="s">
         <v>10</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="MN1" t="s">
         <v>11</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="MO1" t="s">
         <v>12</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="MP1" t="s">
         <v>13</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="MQ1" t="s">
         <v>14</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="MR1" t="s">
         <v>15</v>
       </c>
-      <c r="GF1" t="s">
+      <c r="MS1" t="s">
         <v>16</v>
       </c>
-      <c r="GG1" t="s">
+      <c r="MT1" t="s">
         <v>17</v>
       </c>
-      <c r="GH1" t="s">
+      <c r="MU1" t="s">
         <v>18</v>
       </c>
-      <c r="GI1" t="s">
+      <c r="MV1" t="s">
         <v>19</v>
       </c>
-      <c r="GJ1" t="s">
+      <c r="MW1" t="s">
         <v>20</v>
       </c>
-      <c r="GK1" t="s">
+      <c r="MX1" t="s">
         <v>21</v>
       </c>
-      <c r="GL1" t="s">
+      <c r="MY1" t="s">
         <v>22</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="MZ1" t="s">
         <v>23</v>
       </c>
-      <c r="GN1" t="s">
+      <c r="NA1" t="s">
         <v>24</v>
       </c>
-      <c r="GO1" t="s">
+      <c r="NB1" t="s">
         <v>25</v>
       </c>
-      <c r="GP1" t="s">
+      <c r="NC1" t="s">
         <v>26</v>
       </c>
-      <c r="GQ1" t="s">
+      <c r="ND1" t="s">
         <v>27</v>
       </c>
-      <c r="GR1" t="s">
+      <c r="NE1" t="s">
         <v>28</v>
       </c>
-      <c r="GS1" t="s">
+      <c r="NF1" t="s">
         <v>29</v>
       </c>
-      <c r="GT1" t="s">
+      <c r="NG1" t="s">
         <v>30</v>
       </c>
-      <c r="GU1" t="s">
+      <c r="NH1" t="s">
         <v>31</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="NI1" t="s">
         <v>32</v>
       </c>
-      <c r="GW1" t="s">
+      <c r="NJ1" t="s">
         <v>33</v>
       </c>
-      <c r="GX1" t="s">
+      <c r="NK1" t="s">
         <v>34</v>
       </c>
-      <c r="GY1" t="s">
+      <c r="NL1" t="s">
         <v>35</v>
       </c>
-      <c r="GZ1" t="s">
+      <c r="NM1" t="s">
         <v>36</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="NN1" t="s">
         <v>37</v>
       </c>
-      <c r="HB1" t="s">
+      <c r="NO1" t="s">
         <v>38</v>
       </c>
-      <c r="HC1" t="s">
+      <c r="NP1" t="s">
         <v>39</v>
       </c>
-      <c r="HD1" t="s">
+      <c r="NQ1" t="s">
         <v>40</v>
       </c>
-      <c r="HE1" t="s">
+      <c r="NR1" t="s">
         <v>41</v>
       </c>
-      <c r="HF1" t="s">
+      <c r="NS1" t="s">
         <v>42</v>
       </c>
-      <c r="HG1" t="s">
+      <c r="NT1" t="s">
         <v>43</v>
       </c>
-      <c r="HH1" t="s">
+      <c r="NU1" t="s">
         <v>44</v>
       </c>
-      <c r="HI1" t="s">
+      <c r="NV1" t="s">
         <v>45</v>
       </c>
-      <c r="HJ1" t="s">
+      <c r="NW1" t="s">
         <v>46</v>
       </c>
-      <c r="HK1" t="s">
+      <c r="NX1" t="s">
         <v>47</v>
       </c>
-      <c r="HL1" t="s">
+      <c r="NY1" t="s">
         <v>48</v>
       </c>
-      <c r="HM1" t="s">
+      <c r="NZ1" t="s">
         <v>39</v>
       </c>
-      <c r="HN1" t="s">
+      <c r="OA1" t="s">
         <v>40</v>
       </c>
-      <c r="HO1" t="s">
+      <c r="OB1" t="s">
         <v>49</v>
       </c>
-      <c r="HP1" t="s">
+      <c r="OC1" t="s">
         <v>50</v>
       </c>
-      <c r="HQ1" t="s">
+      <c r="OD1" t="s">
         <v>51</v>
       </c>
-      <c r="HR1" t="s">
+      <c r="OE1" t="s">
         <v>52</v>
       </c>
-      <c r="HS1" t="s">
+      <c r="OF1" t="s">
         <v>53</v>
       </c>
-      <c r="HT1" t="s">
+      <c r="OG1" t="s">
         <v>54</v>
       </c>
-      <c r="HU1" t="s">
+      <c r="OH1" t="s">
         <v>55</v>
       </c>
-      <c r="HV1" t="s">
+      <c r="OI1" t="s">
         <v>56</v>
       </c>
-      <c r="HW1" t="s">
+      <c r="OJ1" t="s">
         <v>39</v>
       </c>
-      <c r="HX1" t="s">
+      <c r="OK1" t="s">
         <v>40</v>
       </c>
-      <c r="HY1" t="s">
+      <c r="OL1" t="s">
         <v>57</v>
       </c>
-      <c r="HZ1" t="s">
+      <c r="OM1" t="s">
         <v>58</v>
       </c>
-      <c r="IA1" t="s">
+      <c r="ON1" t="s">
         <v>59</v>
       </c>
-      <c r="IB1" t="s">
+      <c r="OO1" t="s">
         <v>60</v>
       </c>
-      <c r="IC1" t="s">
+      <c r="OP1" t="s">
         <v>61</v>
       </c>
-      <c r="ID1" t="s">
+      <c r="OQ1" t="s">
         <v>62</v>
       </c>
-      <c r="IE1" t="s">
+      <c r="OR1" t="s">
         <v>63</v>
       </c>
-      <c r="IF1" t="s">
+      <c r="OS1" t="s">
         <v>64</v>
       </c>
-      <c r="IG1" t="s">
+      <c r="OT1" t="s">
         <v>39</v>
       </c>
-      <c r="IH1" t="s">
+      <c r="OU1" t="s">
         <v>40</v>
       </c>
-      <c r="II1" t="s">
+      <c r="OV1" t="s">
         <v>65</v>
       </c>
-      <c r="IJ1" t="s">
+      <c r="OW1" t="s">
         <v>66</v>
       </c>
-      <c r="IK1" t="s">
+      <c r="OX1" t="s">
         <v>67</v>
       </c>
-      <c r="IL1" t="s">
+      <c r="OY1" t="s">
         <v>68</v>
       </c>
-      <c r="IM1" t="s">
+      <c r="OZ1" t="s">
         <v>69</v>
       </c>
-      <c r="IN1" t="s">
+      <c r="PA1" t="s">
         <v>70</v>
       </c>
-      <c r="IO1" t="s">
+      <c r="PB1" t="s">
         <v>71</v>
       </c>
-      <c r="IP1" t="s">
+      <c r="PC1" t="s">
         <v>72</v>
       </c>
-      <c r="IQ1" t="s">
+      <c r="PD1" t="s">
         <v>39</v>
       </c>
-      <c r="IR1" t="s">
+      <c r="PE1" t="s">
         <v>40</v>
       </c>
-      <c r="IS1" t="s">
+      <c r="PF1" t="s">
         <v>73</v>
       </c>
-      <c r="IT1" t="s">
+      <c r="PG1" t="s">
         <v>74</v>
       </c>
-      <c r="IU1" t="s">
+      <c r="PH1" t="s">
         <v>75</v>
       </c>
-      <c r="IV1" t="s">
+      <c r="PI1" t="s">
         <v>76</v>
       </c>
-      <c r="IW1" t="s">
+      <c r="PJ1" t="s">
         <v>77</v>
       </c>
-      <c r="IX1" t="s">
+      <c r="PK1" t="s">
         <v>78</v>
       </c>
-      <c r="IY1" t="s">
+      <c r="PL1" t="s">
         <v>79</v>
       </c>
-      <c r="IZ1" t="s">
+      <c r="PM1" t="s">
         <v>80</v>
       </c>
-      <c r="JA1" t="s">
+      <c r="PN1" t="s">
         <v>39</v>
       </c>
-      <c r="JB1" t="s">
+      <c r="PO1" t="s">
         <v>40</v>
       </c>
-      <c r="JC1" t="s">
+      <c r="PP1" t="s">
         <v>81</v>
       </c>
-      <c r="JD1" t="s">
+      <c r="PQ1" t="s">
         <v>82</v>
       </c>
-      <c r="JE1" t="s">
+      <c r="PR1" t="s">
         <v>83</v>
       </c>
-      <c r="JF1" t="s">
+      <c r="PS1" t="s">
         <v>84</v>
       </c>
-      <c r="JG1" t="s">
+      <c r="PT1" t="s">
         <v>85</v>
       </c>
-      <c r="JH1" t="s">
+      <c r="PU1" t="s">
         <v>86</v>
       </c>
-      <c r="JI1" t="s">
+      <c r="PV1" t="s">
         <v>87</v>
       </c>
-      <c r="JJ1" t="s">
+      <c r="PW1" t="s">
         <v>88</v>
       </c>
-      <c r="JK1" t="s">
+      <c r="PX1" t="s">
         <v>39</v>
       </c>
-      <c r="JL1" t="s">
+      <c r="PY1" t="s">
         <v>40</v>
       </c>
-      <c r="JM1" t="s">
+      <c r="PZ1" t="s">
         <v>89</v>
       </c>
-      <c r="JN1" t="s">
+      <c r="QA1" t="s">
         <v>90</v>
       </c>
-      <c r="JO1" t="s">
+      <c r="QB1" t="s">
         <v>91</v>
       </c>
-      <c r="JP1" t="s">
+      <c r="QC1" t="s">
         <v>92</v>
       </c>
-      <c r="JQ1" t="s">
+      <c r="QD1" t="s">
         <v>93</v>
       </c>
-      <c r="JR1" t="s">
+      <c r="QE1" t="s">
         <v>94</v>
       </c>
-      <c r="JS1" t="s">
+      <c r="QF1" t="s">
         <v>95</v>
       </c>
-      <c r="JT1" t="s">
+      <c r="QG1" t="s">
         <v>96</v>
       </c>
-      <c r="JU1" t="s">
+      <c r="QH1" t="s">
         <v>97</v>
       </c>
-      <c r="JV1" t="s">
+      <c r="QI1" t="s">
         <v>98</v>
       </c>
-      <c r="JW1" t="s">
+      <c r="QJ1" t="s">
         <v>99</v>
       </c>
-      <c r="JX1" t="s">
+      <c r="QK1" t="s">
         <v>100</v>
       </c>
-      <c r="JY1" t="s">
+      <c r="QL1" t="s">
         <v>101</v>
       </c>
-      <c r="JZ1" t="s">
+      <c r="QM1" t="s">
         <v>102</v>
       </c>
-      <c r="KA1" t="s">
+      <c r="QN1" t="s">
         <v>103</v>
       </c>
-      <c r="KB1" t="s">
+      <c r="QO1" t="s">
         <v>104</v>
       </c>
-      <c r="KC1" t="s">
+      <c r="QP1" t="s">
         <v>105</v>
       </c>
-      <c r="KD1" t="s">
+      <c r="QQ1" t="s">
         <v>106</v>
       </c>
-      <c r="KE1" t="s">
+      <c r="QR1" t="s">
         <v>107</v>
       </c>
-      <c r="KF1" t="s">
+      <c r="QS1" t="s">
         <v>108</v>
       </c>
-      <c r="KG1" t="s">
+      <c r="QT1" t="s">
         <v>109</v>
       </c>
-      <c r="KH1" t="s">
+      <c r="QU1" t="s">
         <v>110</v>
       </c>
-      <c r="KI1" t="s">
+      <c r="QV1" t="s">
         <v>111</v>
       </c>
-      <c r="KJ1" t="s">
+      <c r="QW1" t="s">
         <v>112</v>
       </c>
-      <c r="KK1" t="s">
+      <c r="QX1" t="s">
         <v>113</v>
       </c>
-      <c r="KL1" t="s">
+      <c r="QY1" t="s">
         <v>114</v>
       </c>
-      <c r="KM1" t="s">
+      <c r="QZ1" t="s">
         <v>115</v>
       </c>
-      <c r="KN1" t="s">
+      <c r="RA1" t="s">
         <v>116</v>
       </c>
-      <c r="KO1" t="s">
+      <c r="RB1" t="s">
         <v>117</v>
       </c>
-      <c r="KP1" t="s">
+      <c r="RC1" t="s">
         <v>118</v>
       </c>
-      <c r="KQ1" t="s">
+      <c r="RD1" t="s">
         <v>119</v>
       </c>
-      <c r="KR1" t="s">
+      <c r="RE1" t="s">
         <v>120</v>
       </c>
-      <c r="KS1" t="s">
+      <c r="RF1" t="s">
         <v>121</v>
       </c>
-      <c r="KT1" t="s">
+      <c r="RG1" t="s">
         <v>122</v>
       </c>
-      <c r="KU1" t="s">
+      <c r="RH1" t="s">
         <v>123</v>
       </c>
-      <c r="KV1" t="s">
+      <c r="RI1" t="s">
         <v>124</v>
       </c>
-      <c r="KW1" t="s">
+      <c r="RJ1" t="s">
         <v>125</v>
       </c>
-      <c r="KX1" t="s">
+      <c r="RK1" t="s">
         <v>126</v>
       </c>
-      <c r="KY1" t="s">
+      <c r="RL1" t="s">
         <v>127</v>
       </c>
-      <c r="KZ1" t="s">
+      <c r="RM1" t="s">
         <v>128</v>
       </c>
-      <c r="LA1" t="s">
+      <c r="RN1" t="s">
         <v>129</v>
       </c>
-      <c r="LB1" t="s">
+      <c r="RO1" t="s">
         <v>130</v>
       </c>
-      <c r="LC1" t="s">
+      <c r="RP1" t="s">
         <v>131</v>
       </c>
-      <c r="LD1" t="s">
+      <c r="RQ1" t="s">
         <v>132</v>
       </c>
-      <c r="LE1" t="s">
+      <c r="RR1" t="s">
         <v>133</v>
       </c>
-      <c r="LF1" t="s">
+      <c r="RS1" t="s">
         <v>134</v>
       </c>
-      <c r="LG1" t="s">
+      <c r="RT1" t="s">
         <v>135</v>
       </c>
-      <c r="LH1" t="s">
+      <c r="RU1" t="s">
         <v>136</v>
       </c>
-      <c r="LI1" t="s">
+      <c r="RV1" t="s">
         <v>137</v>
       </c>
-      <c r="LJ1" t="s">
+      <c r="RW1" t="s">
         <v>138</v>
       </c>
-      <c r="LK1" t="s">
+      <c r="RX1" t="s">
         <v>139</v>
       </c>
-      <c r="LL1" t="s">
+      <c r="RY1" t="s">
         <v>140</v>
       </c>
-      <c r="LM1" t="s">
+      <c r="RZ1" t="s">
         <v>141</v>
       </c>
-      <c r="LN1" t="s">
+      <c r="SA1" t="s">
         <v>142</v>
       </c>
-      <c r="LO1" t="s">
+      <c r="SB1" t="s">
         <v>143</v>
       </c>
-      <c r="LP1" t="s">
+      <c r="SC1" t="s">
         <v>144</v>
       </c>
-      <c r="LQ1" t="s">
+      <c r="SD1" t="s">
         <v>145</v>
       </c>
-      <c r="LR1" t="s">
+      <c r="SE1" t="s">
         <v>146</v>
       </c>
-      <c r="LS1" t="s">
+      <c r="SF1" t="s">
         <v>147</v>
       </c>
-      <c r="LT1" t="s">
+      <c r="SG1" t="s">
         <v>148</v>
       </c>
-      <c r="LU1" t="s">
+      <c r="SH1" t="s">
         <v>149</v>
       </c>
-      <c r="LV1" t="s">
+      <c r="SI1" t="s">
         <v>150</v>
       </c>
-      <c r="LW1" t="s">
+      <c r="SJ1" t="s">
         <v>151</v>
       </c>
-      <c r="LX1" t="s">
+      <c r="SK1" t="s">
         <v>152</v>
       </c>
-      <c r="LY1" t="s">
+      <c r="SL1" t="s">
         <v>20</v>
       </c>
-      <c r="LZ1" t="s">
+      <c r="SM1" t="s">
         <v>153</v>
       </c>
-      <c r="MA1" t="s">
+      <c r="SN1" t="s">
         <v>154</v>
       </c>
-      <c r="MB1" t="s">
+      <c r="SO1" t="s">
         <v>155</v>
       </c>
-      <c r="MC1" t="s">
+      <c r="SP1" t="s">
         <v>156</v>
       </c>
-      <c r="MD1" t="s">
+      <c r="SQ1" t="s">
         <v>157</v>
       </c>
-      <c r="ME1" t="s">
+      <c r="SR1" t="s">
         <v>158</v>
       </c>
-      <c r="MF1" t="s">
+      <c r="SS1" t="s">
         <v>159</v>
       </c>
-      <c r="MG1" t="s">
+      <c r="ST1" t="s">
         <v>160</v>
       </c>
-      <c r="MH1" t="s">
+      <c r="SU1" t="s">
         <v>161</v>
       </c>
-      <c r="MI1" t="s">
+      <c r="SV1" t="s">
         <v>162</v>
       </c>
-      <c r="MJ1" t="s">
+      <c r="SW1" t="s">
         <v>163</v>
       </c>
-      <c r="MK1" t="s">
+      <c r="SX1" t="s">
         <v>164</v>
       </c>
-      <c r="ML1" t="s">
-        <v>166</v>
-      </c>
-      <c r="MM1" t="s">
+      <c r="SY1" t="s">
+        <v>165</v>
+      </c>
+      <c r="SZ1" t="s">
         <v>9</v>
       </c>
-      <c r="MN1" t="s">
+      <c r="TA1" t="s">
         <v>10</v>
       </c>
-      <c r="MO1" t="s">
+      <c r="TB1" t="s">
         <v>11</v>
       </c>
-      <c r="MP1" t="s">
+      <c r="TC1" t="s">
         <v>12</v>
       </c>
-      <c r="MQ1" t="s">
+      <c r="TD1" t="s">
         <v>13</v>
       </c>
-      <c r="MR1" t="s">
+      <c r="TE1" t="s">
         <v>14</v>
       </c>
-      <c r="MS1" t="s">
+      <c r="TF1" t="s">
         <v>15</v>
       </c>
-      <c r="MT1" t="s">
+      <c r="TG1" t="s">
         <v>16</v>
       </c>
-      <c r="MU1" t="s">
+      <c r="TH1" t="s">
         <v>17</v>
       </c>
-      <c r="MV1" t="s">
+      <c r="TI1" t="s">
         <v>18</v>
       </c>
-      <c r="MW1" t="s">
+      <c r="TJ1" t="s">
         <v>19</v>
       </c>
-      <c r="MX1" t="s">
+      <c r="TK1" t="s">
         <v>20</v>
       </c>
-      <c r="MY1" t="s">
+      <c r="TL1" t="s">
         <v>21</v>
       </c>
-      <c r="MZ1" t="s">
+      <c r="TM1" t="s">
         <v>22</v>
       </c>
-      <c r="NA1" t="s">
+      <c r="TN1" t="s">
         <v>23</v>
       </c>
-      <c r="NB1" t="s">
+      <c r="TO1" t="s">
         <v>24</v>
       </c>
-      <c r="NC1" t="s">
+      <c r="TP1" t="s">
         <v>25</v>
       </c>
-      <c r="ND1" t="s">
+      <c r="TQ1" t="s">
         <v>26</v>
       </c>
-      <c r="NE1" t="s">
+      <c r="TR1" t="s">
         <v>27</v>
       </c>
-      <c r="NF1" t="s">
+      <c r="TS1" t="s">
         <v>28</v>
       </c>
-      <c r="NG1" t="s">
+      <c r="TT1" t="s">
         <v>29</v>
       </c>
-      <c r="NH1" t="s">
+      <c r="TU1" t="s">
         <v>30</v>
       </c>
-      <c r="NI1" t="s">
+      <c r="TV1" t="s">
         <v>31</v>
       </c>
-      <c r="NJ1" t="s">
+      <c r="TW1" t="s">
         <v>32</v>
       </c>
-      <c r="NK1" t="s">
+      <c r="TX1" t="s">
         <v>33</v>
       </c>
-      <c r="NL1" t="s">
+      <c r="TY1" t="s">
         <v>34</v>
       </c>
-      <c r="NM1" t="s">
+      <c r="TZ1" t="s">
         <v>35</v>
       </c>
-      <c r="NN1" t="s">
+      <c r="UA1" t="s">
         <v>36</v>
       </c>
-      <c r="NO1" t="s">
+      <c r="UB1" t="s">
         <v>37</v>
       </c>
-      <c r="NP1" t="s">
+      <c r="UC1" t="s">
         <v>38</v>
       </c>
-      <c r="NQ1" t="s">
+      <c r="UD1" t="s">
         <v>39</v>
       </c>
-      <c r="NR1" t="s">
+      <c r="UE1" t="s">
         <v>40</v>
       </c>
-      <c r="NS1" t="s">
+      <c r="UF1" t="s">
         <v>41</v>
       </c>
-      <c r="NT1" t="s">
+      <c r="UG1" t="s">
         <v>42</v>
       </c>
-      <c r="NU1" t="s">
+      <c r="UH1" t="s">
         <v>43</v>
       </c>
-      <c r="NV1" t="s">
+      <c r="UI1" t="s">
         <v>44</v>
       </c>
-      <c r="NW1" t="s">
+      <c r="UJ1" t="s">
         <v>45</v>
       </c>
-      <c r="NX1" t="s">
+      <c r="UK1" t="s">
         <v>46</v>
       </c>
-      <c r="NY1" t="s">
+      <c r="UL1" t="s">
         <v>47</v>
       </c>
-      <c r="NZ1" t="s">
+      <c r="UM1" t="s">
         <v>48</v>
       </c>
-      <c r="OA1" t="s">
+      <c r="UN1" t="s">
         <v>39</v>
       </c>
-      <c r="OB1" t="s">
+      <c r="UO1" t="s">
         <v>40</v>
       </c>
-      <c r="OC1" t="s">
+      <c r="UP1" t="s">
         <v>49</v>
       </c>
-      <c r="OD1" t="s">
+      <c r="UQ1" t="s">
         <v>50</v>
       </c>
-      <c r="OE1" t="s">
+      <c r="UR1" t="s">
         <v>51</v>
       </c>
-      <c r="OF1" t="s">
+      <c r="US1" t="s">
         <v>52</v>
       </c>
-      <c r="OG1" t="s">
+      <c r="UT1" t="s">
         <v>53</v>
       </c>
-      <c r="OH1" t="s">
+      <c r="UU1" t="s">
         <v>54</v>
       </c>
-      <c r="OI1" t="s">
+      <c r="UV1" t="s">
         <v>55</v>
       </c>
-      <c r="OJ1" t="s">
+      <c r="UW1" t="s">
         <v>56</v>
       </c>
-      <c r="OK1" t="s">
+      <c r="UX1" t="s">
         <v>39</v>
       </c>
-      <c r="OL1" t="s">
+      <c r="UY1" t="s">
         <v>40</v>
       </c>
-      <c r="OM1" t="s">
+      <c r="UZ1" t="s">
         <v>57</v>
       </c>
-      <c r="ON1" t="s">
+      <c r="VA1" t="s">
         <v>58</v>
       </c>
-      <c r="OO1" t="s">
+      <c r="VB1" t="s">
         <v>59</v>
       </c>
-      <c r="OP1" t="s">
+      <c r="VC1" t="s">
         <v>60</v>
       </c>
-      <c r="OQ1" t="s">
+      <c r="VD1" t="s">
         <v>61</v>
       </c>
-      <c r="OR1" t="s">
+      <c r="VE1" t="s">
         <v>62</v>
       </c>
-      <c r="OS1" t="s">
+      <c r="VF1" t="s">
         <v>63</v>
       </c>
-      <c r="OT1" t="s">
+      <c r="VG1" t="s">
         <v>64</v>
       </c>
-      <c r="OU1" t="s">
+      <c r="VH1" t="s">
         <v>39</v>
       </c>
-      <c r="OV1" t="s">
+      <c r="VI1" t="s">
         <v>40</v>
       </c>
-      <c r="OW1" t="s">
+      <c r="VJ1" t="s">
         <v>65</v>
       </c>
-      <c r="OX1" t="s">
+      <c r="VK1" t="s">
         <v>66</v>
       </c>
-      <c r="OY1" t="s">
+      <c r="VL1" t="s">
         <v>67</v>
       </c>
-      <c r="OZ1" t="s">
+      <c r="VM1" t="s">
         <v>68</v>
       </c>
-      <c r="PA1" t="s">
+      <c r="VN1" t="s">
         <v>69</v>
       </c>
-      <c r="PB1" t="s">
+      <c r="VO1" t="s">
         <v>70</v>
       </c>
-      <c r="PC1" t="s">
+      <c r="VP1" t="s">
         <v>71</v>
       </c>
-      <c r="PD1" t="s">
+      <c r="VQ1" t="s">
         <v>72</v>
       </c>
-      <c r="PE1" t="s">
+      <c r="VR1" t="s">
         <v>39</v>
       </c>
-      <c r="PF1" t="s">
+      <c r="VS1" t="s">
         <v>40</v>
       </c>
-      <c r="PG1" t="s">
+      <c r="VT1" t="s">
         <v>73</v>
       </c>
-      <c r="PH1" t="s">
+      <c r="VU1" t="s">
         <v>74</v>
       </c>
-      <c r="PI1" t="s">
+      <c r="VV1" t="s">
         <v>75</v>
       </c>
-      <c r="PJ1" t="s">
+      <c r="VW1" t="s">
         <v>76</v>
       </c>
-      <c r="PK1" t="s">
+      <c r="VX1" t="s">
         <v>77</v>
       </c>
-      <c r="PL1" t="s">
+      <c r="VY1" t="s">
         <v>78</v>
       </c>
-      <c r="PM1" t="s">
+      <c r="VZ1" t="s">
         <v>79</v>
       </c>
-      <c r="PN1" t="s">
+      <c r="WA1" t="s">
         <v>80</v>
       </c>
-      <c r="PO1" t="s">
+      <c r="WB1" t="s">
         <v>39</v>
       </c>
-      <c r="PP1" t="s">
+      <c r="WC1" t="s">
         <v>40</v>
       </c>
-      <c r="PQ1" t="s">
+      <c r="WD1" t="s">
         <v>81</v>
       </c>
-      <c r="PR1" t="s">
+      <c r="WE1" t="s">
         <v>82</v>
       </c>
-      <c r="PS1" t="s">
+      <c r="WF1" t="s">
         <v>83</v>
       </c>
-      <c r="PT1" t="s">
+      <c r="WG1" t="s">
         <v>84</v>
       </c>
-      <c r="PU1" t="s">
+      <c r="WH1" t="s">
         <v>85</v>
       </c>
-      <c r="PV1" t="s">
+      <c r="WI1" t="s">
         <v>86</v>
       </c>
-      <c r="PW1" t="s">
+      <c r="WJ1" t="s">
         <v>87</v>
       </c>
-      <c r="PX1" t="s">
+      <c r="WK1" t="s">
         <v>88</v>
       </c>
-      <c r="PY1" t="s">
+      <c r="WL1" t="s">
         <v>39</v>
       </c>
-      <c r="PZ1" t="s">
+      <c r="WM1" t="s">
         <v>40</v>
       </c>
-      <c r="QA1" t="s">
+      <c r="WN1" t="s">
         <v>89</v>
       </c>
-      <c r="QB1" t="s">
+      <c r="WO1" t="s">
         <v>90</v>
       </c>
-      <c r="QC1" t="s">
+      <c r="WP1" t="s">
         <v>91</v>
       </c>
-      <c r="QD1" t="s">
+      <c r="WQ1" t="s">
         <v>92</v>
       </c>
-      <c r="QE1" t="s">
+      <c r="WR1" t="s">
         <v>93</v>
       </c>
-      <c r="QF1" t="s">
+      <c r="WS1" t="s">
         <v>94</v>
       </c>
-      <c r="QG1" t="s">
+      <c r="WT1" t="s">
         <v>95</v>
       </c>
-      <c r="QH1" t="s">
+      <c r="WU1" t="s">
         <v>96</v>
       </c>
-      <c r="QI1" t="s">
+      <c r="WV1" t="s">
         <v>97</v>
       </c>
-      <c r="QJ1" t="s">
+      <c r="WW1" t="s">
         <v>98</v>
       </c>
-      <c r="QK1" t="s">
+      <c r="WX1" t="s">
         <v>99</v>
       </c>
-      <c r="QL1" t="s">
+      <c r="WY1" t="s">
         <v>100</v>
       </c>
-      <c r="QM1" t="s">
+      <c r="WZ1" t="s">
         <v>101</v>
       </c>
-      <c r="QN1" t="s">
+      <c r="XA1" t="s">
         <v>102</v>
       </c>
-      <c r="QO1" t="s">
+      <c r="XB1" t="s">
         <v>103</v>
       </c>
-      <c r="QP1" t="s">
+      <c r="XC1" t="s">
         <v>104</v>
       </c>
-      <c r="QQ1" t="s">
+      <c r="XD1" t="s">
         <v>105</v>
       </c>
-      <c r="QR1" t="s">
+      <c r="XE1" t="s">
         <v>106</v>
       </c>
-      <c r="QS1" t="s">
+      <c r="XF1" t="s">
         <v>107</v>
       </c>
-      <c r="QT1" t="s">
+      <c r="XG1" t="s">
         <v>108</v>
       </c>
-      <c r="QU1" t="s">
+      <c r="XH1" t="s">
         <v>109</v>
       </c>
-      <c r="QV1" t="s">
+      <c r="XI1" t="s">
         <v>110</v>
       </c>
-      <c r="QW1" t="s">
+      <c r="XJ1" t="s">
         <v>111</v>
       </c>
-      <c r="QX1" t="s">
+      <c r="XK1" t="s">
         <v>112</v>
       </c>
-      <c r="QY1" t="s">
+      <c r="XL1" t="s">
         <v>113</v>
       </c>
-      <c r="QZ1" t="s">
+      <c r="XM1" t="s">
         <v>114</v>
       </c>
-      <c r="RA1" t="s">
+      <c r="XN1" t="s">
         <v>115</v>
       </c>
-      <c r="RB1" t="s">
+      <c r="XO1" t="s">
         <v>116</v>
       </c>
-      <c r="RC1" t="s">
+      <c r="XP1" t="s">
         <v>117</v>
       </c>
-      <c r="RD1" t="s">
+      <c r="XQ1" t="s">
         <v>118</v>
       </c>
-      <c r="RE1" t="s">
+      <c r="XR1" t="s">
         <v>119</v>
       </c>
-      <c r="RF1" t="s">
+      <c r="XS1" t="s">
         <v>120</v>
       </c>
-      <c r="RG1" t="s">
+      <c r="XT1" t="s">
         <v>121</v>
       </c>
-      <c r="RH1" t="s">
+      <c r="XU1" t="s">
         <v>122</v>
       </c>
-      <c r="RI1" t="s">
+      <c r="XV1" t="s">
         <v>123</v>
       </c>
-      <c r="RJ1" t="s">
+      <c r="XW1" t="s">
         <v>124</v>
       </c>
-      <c r="RK1" t="s">
+      <c r="XX1" t="s">
         <v>125</v>
       </c>
-      <c r="RL1" t="s">
+      <c r="XY1" t="s">
         <v>126</v>
       </c>
-      <c r="RM1" t="s">
+      <c r="XZ1" t="s">
         <v>127</v>
       </c>
-      <c r="RN1" t="s">
+      <c r="YA1" t="s">
         <v>128</v>
       </c>
-      <c r="RO1" t="s">
+      <c r="YB1" t="s">
         <v>129</v>
       </c>
-      <c r="RP1" t="s">
+      <c r="YC1" t="s">
         <v>130</v>
       </c>
-      <c r="RQ1" t="s">
+      <c r="YD1" t="s">
         <v>131</v>
       </c>
-      <c r="RR1" t="s">
+      <c r="YE1" t="s">
         <v>132</v>
       </c>
-      <c r="RS1" t="s">
+      <c r="YF1" t="s">
         <v>133</v>
       </c>
-      <c r="RT1" t="s">
+      <c r="YG1" t="s">
         <v>134</v>
       </c>
-      <c r="RU1" t="s">
+      <c r="YH1" t="s">
         <v>135</v>
       </c>
-      <c r="RV1" t="s">
+      <c r="YI1" t="s">
         <v>136</v>
       </c>
-      <c r="RW1" t="s">
+      <c r="YJ1" t="s">
         <v>137</v>
       </c>
-      <c r="RX1" t="s">
+      <c r="YK1" t="s">
         <v>138</v>
       </c>
-      <c r="RY1" t="s">
+      <c r="YL1" t="s">
         <v>139</v>
       </c>
-      <c r="RZ1" t="s">
+      <c r="YM1" t="s">
         <v>140</v>
       </c>
-      <c r="SA1" t="s">
+      <c r="YN1" t="s">
         <v>141</v>
       </c>
-      <c r="SB1" t="s">
+      <c r="YO1" t="s">
         <v>142</v>
       </c>
-      <c r="SC1" t="s">
+      <c r="YP1" t="s">
         <v>143</v>
       </c>
-      <c r="SD1" t="s">
+      <c r="YQ1" t="s">
         <v>144</v>
       </c>
-      <c r="SE1" t="s">
+      <c r="YR1" t="s">
         <v>145</v>
       </c>
-      <c r="SF1" t="s">
+      <c r="YS1" t="s">
         <v>146</v>
       </c>
-      <c r="SG1" t="s">
+      <c r="YT1" t="s">
         <v>147</v>
       </c>
-      <c r="SH1" t="s">
+      <c r="YU1" t="s">
         <v>148</v>
       </c>
-      <c r="SI1" t="s">
+      <c r="YV1" t="s">
         <v>149</v>
       </c>
-      <c r="SJ1" t="s">
+      <c r="YW1" t="s">
         <v>150</v>
       </c>
-      <c r="SK1" t="s">
+      <c r="YX1" t="s">
         <v>151</v>
       </c>
-      <c r="SL1" t="s">
+      <c r="YY1" t="s">
         <v>152</v>
       </c>
-      <c r="SM1" t="s">
+      <c r="YZ1" t="s">
         <v>20</v>
       </c>
-      <c r="SN1" t="s">
+      <c r="ZA1" t="s">
         <v>153</v>
       </c>
-      <c r="SO1" t="s">
+      <c r="ZB1" t="s">
         <v>154</v>
       </c>
-      <c r="SP1" t="s">
+      <c r="ZC1" t="s">
         <v>155</v>
       </c>
-      <c r="SQ1" t="s">
+      <c r="ZD1" t="s">
         <v>156</v>
       </c>
-      <c r="SR1" t="s">
+      <c r="ZE1" t="s">
         <v>157</v>
       </c>
-      <c r="SS1" t="s">
+      <c r="ZF1" t="s">
         <v>158</v>
       </c>
-      <c r="ST1" t="s">
+      <c r="ZG1" t="s">
         <v>159</v>
       </c>
-      <c r="SU1" t="s">
+      <c r="ZH1" t="s">
         <v>160</v>
       </c>
-      <c r="SV1" t="s">
+      <c r="ZI1" t="s">
         <v>161</v>
       </c>
-      <c r="SW1" t="s">
+      <c r="ZJ1" t="s">
         <v>162</v>
       </c>
-      <c r="SX1" t="s">
+      <c r="ZK1" t="s">
         <v>163</v>
       </c>
-      <c r="SY1" t="s">
+      <c r="ZL1" t="s">
         <v>164</v>
       </c>
-      <c r="SZ1" t="s">
-        <v>166</v>
-      </c>
-      <c r="TA1" t="s">
+      <c r="ZM1" t="s">
+        <v>165</v>
+      </c>
+      <c r="ZN1" t="s">
         <v>9</v>
       </c>
-      <c r="TB1" t="s">
+      <c r="ZO1" t="s">
         <v>10</v>
       </c>
-      <c r="TC1" t="s">
+      <c r="ZP1" t="s">
         <v>11</v>
       </c>
-      <c r="TD1" t="s">
+      <c r="ZQ1" t="s">
         <v>12</v>
       </c>
-      <c r="TE1" t="s">
+      <c r="ZR1" t="s">
         <v>13</v>
       </c>
-      <c r="TF1" t="s">
+      <c r="ZS1" t="s">
         <v>14</v>
       </c>
-      <c r="TG1" t="s">
+      <c r="ZT1" t="s">
         <v>15</v>
       </c>
-      <c r="TH1" t="s">
+      <c r="ZU1" t="s">
         <v>16</v>
       </c>
-      <c r="TI1" t="s">
+      <c r="ZV1" t="s">
         <v>17</v>
       </c>
-      <c r="TJ1" t="s">
+      <c r="ZW1" t="s">
         <v>18</v>
       </c>
-      <c r="TK1" t="s">
+      <c r="ZX1" t="s">
         <v>19</v>
       </c>
-      <c r="TL1" t="s">
+      <c r="ZY1" t="s">
         <v>20</v>
       </c>
-      <c r="TM1" t="s">
+      <c r="ZZ1" t="s">
         <v>21</v>
       </c>
-      <c r="TN1" t="s">
+      <c r="AAA1" t="s">
         <v>22</v>
       </c>
-      <c r="TO1" t="s">
+      <c r="AAB1" t="s">
         <v>23</v>
       </c>
-      <c r="TP1" t="s">
+      <c r="AAC1" t="s">
         <v>24</v>
       </c>
-      <c r="TQ1" t="s">
+      <c r="AAD1" t="s">
         <v>25</v>
       </c>
-      <c r="TR1" t="s">
+      <c r="AAE1" t="s">
         <v>26</v>
       </c>
-      <c r="TS1" t="s">
+      <c r="AAF1" t="s">
         <v>27</v>
       </c>
-      <c r="TT1" t="s">
+      <c r="AAG1" t="s">
         <v>28</v>
       </c>
-      <c r="TU1" t="s">
+      <c r="AAH1" t="s">
         <v>29</v>
       </c>
-      <c r="TV1" t="s">
+      <c r="AAI1" t="s">
         <v>30</v>
       </c>
-      <c r="TW1" t="s">
+      <c r="AAJ1" t="s">
         <v>31</v>
       </c>
-      <c r="TX1" t="s">
+      <c r="AAK1" t="s">
         <v>32</v>
       </c>
-      <c r="TY1" t="s">
+      <c r="AAL1" t="s">
         <v>33</v>
       </c>
-      <c r="TZ1" t="s">
+      <c r="AAM1" t="s">
         <v>34</v>
       </c>
-      <c r="UA1" t="s">
+      <c r="AAN1" t="s">
         <v>35</v>
       </c>
-      <c r="UB1" t="s">
+      <c r="AAO1" t="s">
         <v>36</v>
       </c>
-      <c r="UC1" t="s">
+      <c r="AAP1" t="s">
         <v>37</v>
       </c>
-      <c r="UD1" t="s">
+      <c r="AAQ1" t="s">
         <v>38</v>
       </c>
-      <c r="UE1" t="s">
+      <c r="AAR1" t="s">
         <v>39</v>
       </c>
-      <c r="UF1" t="s">
+      <c r="AAS1" t="s">
         <v>40</v>
       </c>
-      <c r="UG1" t="s">
+      <c r="AAT1" t="s">
         <v>41</v>
       </c>
-      <c r="UH1" t="s">
+      <c r="AAU1" t="s">
         <v>42</v>
       </c>
-      <c r="UI1" t="s">
+      <c r="AAV1" t="s">
         <v>43</v>
       </c>
-      <c r="UJ1" t="s">
+      <c r="AAW1" t="s">
         <v>44</v>
       </c>
-      <c r="UK1" t="s">
+      <c r="AAX1" t="s">
         <v>45</v>
       </c>
-      <c r="UL1" t="s">
+      <c r="AAY1" t="s">
         <v>46</v>
       </c>
-      <c r="UM1" t="s">
+      <c r="AAZ1" t="s">
         <v>47</v>
       </c>
-      <c r="UN1" t="s">
+      <c r="ABA1" t="s">
         <v>48</v>
       </c>
-      <c r="UO1" t="s">
+      <c r="ABB1" t="s">
         <v>39</v>
       </c>
-      <c r="UP1" t="s">
+      <c r="ABC1" t="s">
         <v>40</v>
       </c>
-      <c r="UQ1" t="s">
+      <c r="ABD1" t="s">
         <v>49</v>
       </c>
-      <c r="UR1" t="s">
+      <c r="ABE1" t="s">
         <v>50</v>
       </c>
-      <c r="US1" t="s">
+      <c r="ABF1" t="s">
         <v>51</v>
       </c>
-      <c r="UT1" t="s">
+      <c r="ABG1" t="s">
         <v>52</v>
       </c>
-      <c r="UU1" t="s">
+      <c r="ABH1" t="s">
         <v>53</v>
       </c>
-      <c r="UV1" t="s">
+      <c r="ABI1" t="s">
         <v>54</v>
       </c>
-      <c r="UW1" t="s">
+      <c r="ABJ1" t="s">
         <v>55</v>
       </c>
-      <c r="UX1" t="s">
+      <c r="ABK1" t="s">
         <v>56</v>
       </c>
-      <c r="UY1" t="s">
+      <c r="ABL1" t="s">
         <v>39</v>
       </c>
-      <c r="UZ1" t="s">
+      <c r="ABM1" t="s">
         <v>40</v>
       </c>
-      <c r="VA1" t="s">
+      <c r="ABN1" t="s">
         <v>57</v>
       </c>
-      <c r="VB1" t="s">
+      <c r="ABO1" t="s">
         <v>58</v>
       </c>
-      <c r="VC1" t="s">
+      <c r="ABP1" t="s">
         <v>59</v>
       </c>
-      <c r="VD1" t="s">
+      <c r="ABQ1" t="s">
         <v>60</v>
       </c>
-      <c r="VE1" t="s">
+      <c r="ABR1" t="s">
         <v>61</v>
       </c>
-      <c r="VF1" t="s">
+      <c r="ABS1" t="s">
         <v>62</v>
       </c>
-      <c r="VG1" t="s">
+      <c r="ABT1" t="s">
         <v>63</v>
       </c>
-      <c r="VH1" t="s">
+      <c r="ABU1" t="s">
         <v>64</v>
       </c>
-      <c r="VI1" t="s">
+      <c r="ABV1" t="s">
         <v>39</v>
       </c>
-      <c r="VJ1" t="s">
+      <c r="ABW1" t="s">
         <v>40</v>
       </c>
-      <c r="VK1" t="s">
+      <c r="ABX1" t="s">
         <v>65</v>
       </c>
-      <c r="VL1" t="s">
+      <c r="ABY1" t="s">
         <v>66</v>
       </c>
-      <c r="VM1" t="s">
+      <c r="ABZ1" t="s">
         <v>67</v>
       </c>
-      <c r="VN1" t="s">
+      <c r="ACA1" t="s">
         <v>68</v>
       </c>
-      <c r="VO1" t="s">
+      <c r="ACB1" t="s">
         <v>69</v>
       </c>
-      <c r="VP1" t="s">
+      <c r="ACC1" t="s">
         <v>70</v>
       </c>
-      <c r="VQ1" t="s">
+      <c r="ACD1" t="s">
         <v>71</v>
       </c>
-      <c r="VR1" t="s">
+      <c r="ACE1" t="s">
         <v>72</v>
       </c>
-      <c r="VS1" t="s">
+      <c r="ACF1" t="s">
         <v>39</v>
       </c>
-      <c r="VT1" t="s">
+      <c r="ACG1" t="s">
         <v>40</v>
       </c>
-      <c r="VU1" t="s">
+      <c r="ACH1" t="s">
         <v>73</v>
       </c>
-      <c r="VV1" t="s">
+      <c r="ACI1" t="s">
         <v>74</v>
       </c>
-      <c r="VW1" t="s">
+      <c r="ACJ1" t="s">
         <v>75</v>
       </c>
-      <c r="VX1" t="s">
+      <c r="ACK1" t="s">
         <v>76</v>
       </c>
-      <c r="VY1" t="s">
+      <c r="ACL1" t="s">
         <v>77</v>
       </c>
-      <c r="VZ1" t="s">
+      <c r="ACM1" t="s">
         <v>78</v>
       </c>
-      <c r="WA1" t="s">
+      <c r="ACN1" t="s">
         <v>79</v>
       </c>
-      <c r="WB1" t="s">
+      <c r="ACO1" t="s">
         <v>80</v>
       </c>
-      <c r="WC1" t="s">
+      <c r="ACP1" t="s">
         <v>39</v>
       </c>
-      <c r="WD1" t="s">
+      <c r="ACQ1" t="s">
         <v>40</v>
       </c>
-      <c r="WE1" t="s">
+      <c r="ACR1" t="s">
         <v>81</v>
       </c>
-      <c r="WF1" t="s">
+      <c r="ACS1" t="s">
         <v>82</v>
       </c>
-      <c r="WG1" t="s">
+      <c r="ACT1" t="s">
         <v>83</v>
       </c>
-      <c r="WH1" t="s">
+      <c r="ACU1" t="s">
         <v>84</v>
       </c>
-      <c r="WI1" t="s">
+      <c r="ACV1" t="s">
         <v>85</v>
       </c>
-      <c r="WJ1" t="s">
+      <c r="ACW1" t="s">
         <v>86</v>
       </c>
-      <c r="WK1" t="s">
+      <c r="ACX1" t="s">
         <v>87</v>
       </c>
-      <c r="WL1" t="s">
+      <c r="ACY1" t="s">
         <v>88</v>
       </c>
-      <c r="WM1" t="s">
+      <c r="ACZ1" t="s">
         <v>39</v>
       </c>
-      <c r="WN1" t="s">
+      <c r="ADA1" t="s">
         <v>40</v>
       </c>
-      <c r="WO1" t="s">
+      <c r="ADB1" t="s">
         <v>89</v>
       </c>
-      <c r="WP1" t="s">
+      <c r="ADC1" t="s">
         <v>90</v>
       </c>
-      <c r="WQ1" t="s">
+      <c r="ADD1" t="s">
         <v>91</v>
       </c>
-      <c r="WR1" t="s">
+      <c r="ADE1" t="s">
         <v>92</v>
       </c>
-      <c r="WS1" t="s">
+      <c r="ADF1" t="s">
         <v>93</v>
       </c>
-      <c r="WT1" t="s">
+      <c r="ADG1" t="s">
         <v>94</v>
       </c>
-      <c r="WU1" t="s">
+      <c r="ADH1" t="s">
         <v>95</v>
       </c>
-      <c r="WV1" t="s">
+      <c r="ADI1" t="s">
         <v>96</v>
       </c>
-      <c r="WW1" t="s">
+      <c r="ADJ1" t="s">
         <v>97</v>
       </c>
-      <c r="WX1" t="s">
+      <c r="ADK1" t="s">
         <v>98</v>
       </c>
-      <c r="WY1" t="s">
+      <c r="ADL1" t="s">
         <v>99</v>
       </c>
-      <c r="WZ1" t="s">
+      <c r="ADM1" t="s">
         <v>100</v>
       </c>
-      <c r="XA1" t="s">
+      <c r="ADN1" t="s">
         <v>101</v>
       </c>
-      <c r="XB1" t="s">
+      <c r="ADO1" t="s">
         <v>102</v>
       </c>
-      <c r="XC1" t="s">
+      <c r="ADP1" t="s">
         <v>103</v>
       </c>
-      <c r="XD1" t="s">
+      <c r="ADQ1" t="s">
         <v>104</v>
       </c>
-      <c r="XE1" t="s">
+      <c r="ADR1" t="s">
         <v>105</v>
       </c>
-      <c r="XF1" t="s">
+      <c r="ADS1" t="s">
         <v>106</v>
       </c>
-      <c r="XG1" t="s">
+      <c r="ADT1" t="s">
         <v>107</v>
       </c>
-      <c r="XH1" t="s">
+      <c r="ADU1" t="s">
         <v>108</v>
       </c>
-      <c r="XI1" t="s">
+      <c r="ADV1" t="s">
         <v>109</v>
       </c>
-      <c r="XJ1" t="s">
+      <c r="ADW1" t="s">
         <v>110</v>
       </c>
-      <c r="XK1" t="s">
+      <c r="ADX1" t="s">
         <v>111</v>
       </c>
-      <c r="XL1" t="s">
+      <c r="ADY1" t="s">
         <v>112</v>
       </c>
-      <c r="XM1" t="s">
+      <c r="ADZ1" t="s">
         <v>113</v>
       </c>
-      <c r="XN1" t="s">
+      <c r="AEA1" t="s">
         <v>114</v>
       </c>
-      <c r="XO1" t="s">
+      <c r="AEB1" t="s">
         <v>115</v>
       </c>
-      <c r="XP1" t="s">
+      <c r="AEC1" t="s">
         <v>116</v>
       </c>
-      <c r="XQ1" t="s">
+      <c r="AED1" t="s">
         <v>117</v>
       </c>
-      <c r="XR1" t="s">
+      <c r="AEE1" t="s">
         <v>118</v>
       </c>
-      <c r="XS1" t="s">
+      <c r="AEF1" t="s">
         <v>119</v>
       </c>
-      <c r="XT1" t="s">
+      <c r="AEG1" t="s">
         <v>120</v>
       </c>
-      <c r="XU1" t="s">
+      <c r="AEH1" t="s">
         <v>121</v>
       </c>
-      <c r="XV1" t="s">
+      <c r="AEI1" t="s">
         <v>122</v>
       </c>
-      <c r="XW1" t="s">
+      <c r="AEJ1" t="s">
         <v>123</v>
       </c>
-      <c r="XX1" t="s">
+      <c r="AEK1" t="s">
         <v>124</v>
       </c>
-      <c r="XY1" t="s">
+      <c r="AEL1" t="s">
         <v>125</v>
       </c>
-      <c r="XZ1" t="s">
+      <c r="AEM1" t="s">
         <v>126</v>
       </c>
-      <c r="YA1" t="s">
+      <c r="AEN1" t="s">
         <v>127</v>
       </c>
-      <c r="YB1" t="s">
+      <c r="AEO1" t="s">
         <v>128</v>
       </c>
-      <c r="YC1" t="s">
+      <c r="AEP1" t="s">
         <v>129</v>
       </c>
-      <c r="YD1" t="s">
+      <c r="AEQ1" t="s">
         <v>130</v>
       </c>
-      <c r="YE1" t="s">
+      <c r="AER1" t="s">
         <v>131</v>
       </c>
-      <c r="YF1" t="s">
+      <c r="AES1" t="s">
         <v>132</v>
       </c>
-      <c r="YG1" t="s">
+      <c r="AET1" t="s">
         <v>133</v>
       </c>
-      <c r="YH1" t="s">
+      <c r="AEU1" t="s">
         <v>134</v>
       </c>
-      <c r="YI1" t="s">
+      <c r="AEV1" t="s">
         <v>135</v>
       </c>
-      <c r="YJ1" t="s">
+      <c r="AEW1" t="s">
         <v>136</v>
       </c>
-      <c r="YK1" t="s">
+      <c r="AEX1" t="s">
         <v>137</v>
       </c>
-      <c r="YL1" t="s">
+      <c r="AEY1" t="s">
         <v>138</v>
       </c>
-      <c r="YM1" t="s">
+      <c r="AEZ1" t="s">
         <v>139</v>
       </c>
-      <c r="YN1" t="s">
+      <c r="AFA1" t="s">
         <v>140</v>
       </c>
-      <c r="YO1" t="s">
+      <c r="AFB1" t="s">
         <v>141</v>
       </c>
-      <c r="YP1" t="s">
+      <c r="AFC1" t="s">
         <v>142</v>
       </c>
-      <c r="YQ1" t="s">
+      <c r="AFD1" t="s">
         <v>143</v>
       </c>
-      <c r="YR1" t="s">
+      <c r="AFE1" t="s">
         <v>144</v>
       </c>
-      <c r="YS1" t="s">
+      <c r="AFF1" t="s">
         <v>145</v>
       </c>
-      <c r="YT1" t="s">
+      <c r="AFG1" t="s">
         <v>146</v>
       </c>
-      <c r="YU1" t="s">
+      <c r="AFH1" t="s">
         <v>147</v>
       </c>
-      <c r="YV1" t="s">
+      <c r="AFI1" t="s">
         <v>148</v>
       </c>
-      <c r="YW1" t="s">
+      <c r="AFJ1" t="s">
         <v>149</v>
       </c>
-      <c r="YX1" t="s">
+      <c r="AFK1" t="s">
         <v>150</v>
       </c>
-      <c r="YY1" t="s">
+      <c r="AFL1" t="s">
         <v>151</v>
       </c>
-      <c r="YZ1" t="s">
+      <c r="AFM1" t="s">
         <v>152</v>
       </c>
-      <c r="ZA1" t="s">
+      <c r="AFN1" t="s">
         <v>20</v>
       </c>
-      <c r="ZB1" t="s">
+      <c r="AFO1" t="s">
         <v>153</v>
       </c>
-      <c r="ZC1" t="s">
+      <c r="AFP1" t="s">
         <v>154</v>
       </c>
-      <c r="ZD1" t="s">
+      <c r="AFQ1" t="s">
         <v>155</v>
       </c>
-      <c r="ZE1" t="s">
+      <c r="AFR1" t="s">
         <v>156</v>
       </c>
-      <c r="ZF1" t="s">
+      <c r="AFS1" t="s">
         <v>157</v>
       </c>
-      <c r="ZG1" t="s">
+      <c r="AFT1" t="s">
         <v>158</v>
       </c>
-      <c r="ZH1" t="s">
+      <c r="AFU1" t="s">
         <v>159</v>
       </c>
-      <c r="ZI1" t="s">
+      <c r="AFV1" t="s">
         <v>160</v>
       </c>
-      <c r="ZJ1" t="s">
+      <c r="AFW1" t="s">
         <v>161</v>
       </c>
-      <c r="ZK1" t="s">
+      <c r="AFX1" t="s">
         <v>162</v>
       </c>
-      <c r="ZL1" t="s">
+      <c r="AFY1" t="s">
         <v>163</v>
       </c>
-      <c r="ZM1" t="s">
+      <c r="AFZ1" t="s">
         <v>164</v>
       </c>
-      <c r="ZN1" t="s">
-        <v>166</v>
-      </c>
-      <c r="ZO1" t="s">
+      <c r="AGA1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AGB1" t="s">
         <v>9</v>
       </c>
-      <c r="ZP1" t="s">
+      <c r="AGC1" t="s">
         <v>10</v>
       </c>
-      <c r="ZQ1" t="s">
+      <c r="AGD1" t="s">
         <v>11</v>
       </c>
-      <c r="ZR1" t="s">
+      <c r="AGE1" t="s">
         <v>12</v>
       </c>
-      <c r="ZS1" t="s">
+      <c r="AGF1" t="s">
         <v>13</v>
       </c>
-      <c r="ZT1" t="s">
+      <c r="AGG1" t="s">
         <v>14</v>
       </c>
-      <c r="ZU1" t="s">
+      <c r="AGH1" t="s">
         <v>15</v>
       </c>
-      <c r="ZV1" t="s">
+      <c r="AGI1" t="s">
         <v>16</v>
       </c>
-      <c r="ZW1" t="s">
+      <c r="AGJ1" t="s">
         <v>17</v>
       </c>
-      <c r="ZX1" t="s">
+      <c r="AGK1" t="s">
         <v>18</v>
       </c>
-      <c r="ZY1" t="s">
+      <c r="AGL1" t="s">
         <v>19</v>
       </c>
-      <c r="ZZ1" t="s">
+      <c r="AGM1" t="s">
         <v>20</v>
       </c>
-      <c r="AAA1" t="s">
+      <c r="AGN1" t="s">
         <v>21</v>
       </c>
-      <c r="AAB1" t="s">
+      <c r="AGO1" t="s">
         <v>22</v>
       </c>
-      <c r="AAC1" t="s">
+      <c r="AGP1" t="s">
         <v>23</v>
       </c>
-      <c r="AAD1" t="s">
+      <c r="AGQ1" t="s">
         <v>24</v>
       </c>
-      <c r="AAE1" t="s">
+      <c r="AGR1" t="s">
         <v>25</v>
       </c>
-      <c r="AAF1" t="s">
+      <c r="AGS1" t="s">
         <v>26</v>
       </c>
-      <c r="AAG1" t="s">
+      <c r="AGT1" t="s">
         <v>27</v>
       </c>
-      <c r="AAH1" t="s">
+      <c r="AGU1" t="s">
         <v>28</v>
       </c>
-      <c r="AAI1" t="s">
+      <c r="AGV1" t="s">
         <v>29</v>
       </c>
-      <c r="AAJ1" t="s">
+      <c r="AGW1" t="s">
         <v>30</v>
       </c>
-      <c r="AAK1" t="s">
+      <c r="AGX1" t="s">
         <v>31</v>
       </c>
-      <c r="AAL1" t="s">
+      <c r="AGY1" t="s">
         <v>32</v>
       </c>
-      <c r="AAM1" t="s">
+      <c r="AGZ1" t="s">
         <v>33</v>
       </c>
-      <c r="AAN1" t="s">
+      <c r="AHA1" t="s">
         <v>34</v>
       </c>
-      <c r="AAO1" t="s">
+      <c r="AHB1" t="s">
         <v>35</v>
       </c>
-      <c r="AAP1" t="s">
+      <c r="AHC1" t="s">
         <v>36</v>
       </c>
-      <c r="AAQ1" t="s">
+      <c r="AHD1" t="s">
         <v>37</v>
       </c>
-      <c r="AAR1" t="s">
+      <c r="AHE1" t="s">
         <v>38</v>
       </c>
-      <c r="AAS1" t="s">
+      <c r="AHF1" t="s">
         <v>39</v>
       </c>
-      <c r="AAT1" t="s">
+      <c r="AHG1" t="s">
         <v>40</v>
       </c>
-      <c r="AAU1" t="s">
+      <c r="AHH1" t="s">
         <v>41</v>
       </c>
-      <c r="AAV1" t="s">
+      <c r="AHI1" t="s">
         <v>42</v>
       </c>
-      <c r="AAW1" t="s">
+      <c r="AHJ1" t="s">
         <v>43</v>
       </c>
-      <c r="AAX1" t="s">
+      <c r="AHK1" t="s">
         <v>44</v>
       </c>
-      <c r="AAY1" t="s">
+      <c r="AHL1" t="s">
         <v>45</v>
       </c>
-      <c r="AAZ1" t="s">
+      <c r="AHM1" t="s">
         <v>46</v>
       </c>
-      <c r="ABA1" t="s">
+      <c r="AHN1" t="s">
         <v>47</v>
       </c>
-      <c r="ABB1" t="s">
+      <c r="AHO1" t="s">
         <v>48</v>
       </c>
-      <c r="ABC1" t="s">
+      <c r="AHP1" t="s">
         <v>39</v>
       </c>
-      <c r="ABD1" t="s">
+      <c r="AHQ1" t="s">
         <v>40</v>
       </c>
-      <c r="ABE1" t="s">
+      <c r="AHR1" t="s">
         <v>49</v>
       </c>
-      <c r="ABF1" t="s">
+      <c r="AHS1" t="s">
         <v>50</v>
       </c>
-      <c r="ABG1" t="s">
+      <c r="AHT1" t="s">
         <v>51</v>
       </c>
-      <c r="ABH1" t="s">
+      <c r="AHU1" t="s">
         <v>52</v>
       </c>
-      <c r="ABI1" t="s">
+      <c r="AHV1" t="s">
         <v>53</v>
       </c>
-      <c r="ABJ1" t="s">
+      <c r="AHW1" t="s">
         <v>54</v>
       </c>
-      <c r="ABK1" t="s">
+      <c r="AHX1" t="s">
         <v>55</v>
       </c>
-      <c r="ABL1" t="s">
+      <c r="AHY1" t="s">
         <v>56</v>
       </c>
-      <c r="ABM1" t="s">
+      <c r="AHZ1" t="s">
         <v>39</v>
       </c>
-      <c r="ABN1" t="s">
+      <c r="AIA1" t="s">
         <v>40</v>
       </c>
-      <c r="ABO1" t="s">
+      <c r="AIB1" t="s">
         <v>57</v>
       </c>
-      <c r="ABP1" t="s">
+      <c r="AIC1" t="s">
         <v>58</v>
       </c>
-      <c r="ABQ1" t="s">
+      <c r="AID1" t="s">
         <v>59</v>
       </c>
-      <c r="ABR1" t="s">
+      <c r="AIE1" t="s">
         <v>60</v>
       </c>
-      <c r="ABS1" t="s">
+      <c r="AIF1" t="s">
         <v>61</v>
       </c>
-      <c r="ABT1" t="s">
+      <c r="AIG1" t="s">
         <v>62</v>
       </c>
-      <c r="ABU1" t="s">
+      <c r="AIH1" t="s">
         <v>63</v>
       </c>
-      <c r="ABV1" t="s">
+      <c r="AII1" t="s">
         <v>64</v>
       </c>
-      <c r="ABW1" t="s">
+      <c r="AIJ1" t="s">
         <v>39</v>
       </c>
-      <c r="ABX1" t="s">
+      <c r="AIK1" t="s">
         <v>40</v>
       </c>
-      <c r="ABY1" t="s">
+      <c r="AIL1" t="s">
         <v>65</v>
       </c>
-      <c r="ABZ1" t="s">
+      <c r="AIM1" t="s">
         <v>66</v>
       </c>
-      <c r="ACA1" t="s">
+      <c r="AIN1" t="s">
         <v>67</v>
       </c>
-      <c r="ACB1" t="s">
+      <c r="AIO1" t="s">
         <v>68</v>
       </c>
-      <c r="ACC1" t="s">
+      <c r="AIP1" t="s">
         <v>69</v>
       </c>
-      <c r="ACD1" t="s">
+      <c r="AIQ1" t="s">
         <v>70</v>
       </c>
-      <c r="ACE1" t="s">
+      <c r="AIR1" t="s">
         <v>71</v>
       </c>
-      <c r="ACF1" t="s">
+      <c r="AIS1" t="s">
         <v>72</v>
       </c>
-      <c r="ACG1" t="s">
+      <c r="AIT1" t="s">
         <v>39</v>
       </c>
-      <c r="ACH1" t="s">
+      <c r="AIU1" t="s">
         <v>40</v>
       </c>
-      <c r="ACI1" t="s">
+      <c r="AIV1" t="s">
         <v>73</v>
       </c>
-      <c r="ACJ1" t="s">
+      <c r="AIW1" t="s">
         <v>74</v>
       </c>
-      <c r="ACK1" t="s">
+      <c r="AIX1" t="s">
         <v>75</v>
       </c>
-      <c r="ACL1" t="s">
+      <c r="AIY1" t="s">
         <v>76</v>
       </c>
-      <c r="ACM1" t="s">
+      <c r="AIZ1" t="s">
         <v>77</v>
       </c>
-      <c r="ACN1" t="s">
+      <c r="AJA1" t="s">
         <v>78</v>
       </c>
-      <c r="ACO1" t="s">
+      <c r="AJB1" t="s">
         <v>79</v>
       </c>
-      <c r="ACP1" t="s">
+      <c r="AJC1" t="s">
         <v>80</v>
       </c>
-      <c r="ACQ1" t="s">
+      <c r="AJD1" t="s">
         <v>39</v>
       </c>
-      <c r="ACR1" t="s">
+      <c r="AJE1" t="s">
         <v>40</v>
       </c>
-      <c r="ACS1" t="s">
+      <c r="AJF1" t="s">
         <v>81</v>
       </c>
-      <c r="ACT1" t="s">
+      <c r="AJG1" t="s">
         <v>82</v>
       </c>
-      <c r="ACU1" t="s">
+      <c r="AJH1" t="s">
         <v>83</v>
       </c>
-      <c r="ACV1" t="s">
+      <c r="AJI1" t="s">
         <v>84</v>
       </c>
-      <c r="ACW1" t="s">
+      <c r="AJJ1" t="s">
         <v>85</v>
       </c>
-      <c r="ACX1" t="s">
+      <c r="AJK1" t="s">
         <v>86</v>
       </c>
-      <c r="ACY1" t="s">
+      <c r="AJL1" t="s">
         <v>87</v>
       </c>
-      <c r="ACZ1" t="s">
+      <c r="AJM1" t="s">
         <v>88</v>
       </c>
-      <c r="ADA1" t="s">
+      <c r="AJN1" t="s">
         <v>39</v>
       </c>
-      <c r="ADB1" t="s">
+      <c r="AJO1" t="s">
         <v>40</v>
       </c>
-      <c r="ADC1" t="s">
+      <c r="AJP1" t="s">
         <v>89</v>
       </c>
-      <c r="ADD1" t="s">
+      <c r="AJQ1" t="s">
         <v>90</v>
       </c>
-      <c r="ADE1" t="s">
+      <c r="AJR1" t="s">
         <v>91</v>
       </c>
-      <c r="ADF1" t="s">
+      <c r="AJS1" t="s">
         <v>92</v>
       </c>
-      <c r="ADG1" t="s">
+      <c r="AJT1" t="s">
         <v>93</v>
       </c>
-      <c r="ADH1" t="s">
+      <c r="AJU1" t="s">
         <v>94</v>
       </c>
-      <c r="ADI1" t="s">
+      <c r="AJV1" t="s">
         <v>95</v>
       </c>
-      <c r="ADJ1" t="s">
+      <c r="AJW1" t="s">
         <v>96</v>
       </c>
-      <c r="ADK1" t="s">
+      <c r="AJX1" t="s">
         <v>97</v>
       </c>
-      <c r="ADL1" t="s">
+      <c r="AJY1" t="s">
         <v>98</v>
       </c>
-      <c r="ADM1" t="s">
+      <c r="AJZ1" t="s">
         <v>99</v>
       </c>
-      <c r="ADN1" t="s">
+      <c r="AKA1" t="s">
         <v>100</v>
       </c>
-      <c r="ADO1" t="s">
+      <c r="AKB1" t="s">
         <v>101</v>
       </c>
-      <c r="ADP1" t="s">
+      <c r="AKC1" t="s">
         <v>102</v>
       </c>
-      <c r="ADQ1" t="s">
+      <c r="AKD1" t="s">
         <v>103</v>
       </c>
-      <c r="ADR1" t="s">
+      <c r="AKE1" t="s">
         <v>104</v>
       </c>
-      <c r="ADS1" t="s">
+      <c r="AKF1" t="s">
         <v>105</v>
       </c>
-      <c r="ADT1" t="s">
+      <c r="AKG1" t="s">
         <v>106</v>
       </c>
-      <c r="ADU1" t="s">
+      <c r="AKH1" t="s">
         <v>107</v>
       </c>
-      <c r="ADV1" t="s">
+      <c r="AKI1" t="s">
         <v>108</v>
       </c>
-      <c r="ADW1" t="s">
+      <c r="AKJ1" t="s">
         <v>109</v>
       </c>
-      <c r="ADX1" t="s">
+      <c r="AKK1" t="s">
         <v>110</v>
       </c>
-      <c r="ADY1" t="s">
+      <c r="AKL1" t="s">
         <v>111</v>
       </c>
-      <c r="ADZ1" t="s">
+      <c r="AKM1" t="s">
         <v>112</v>
       </c>
-      <c r="AEA1" t="s">
+      <c r="AKN1" t="s">
         <v>113</v>
       </c>
-      <c r="AEB1" t="s">
+      <c r="AKO1" t="s">
         <v>114</v>
       </c>
-      <c r="AEC1" t="s">
+      <c r="AKP1" t="s">
         <v>115</v>
       </c>
-      <c r="AED1" t="s">
+      <c r="AKQ1" t="s">
         <v>116</v>
       </c>
-      <c r="AEE1" t="s">
+      <c r="AKR1" t="s">
         <v>117</v>
       </c>
-      <c r="AEF1" t="s">
+      <c r="AKS1" t="s">
         <v>118</v>
       </c>
-      <c r="AEG1" t="s">
+      <c r="AKT1" t="s">
         <v>119</v>
       </c>
-      <c r="AEH1" t="s">
+      <c r="AKU1" t="s">
         <v>120</v>
       </c>
-      <c r="AEI1" t="s">
+      <c r="AKV1" t="s">
         <v>121</v>
       </c>
-      <c r="AEJ1" t="s">
+      <c r="AKW1" t="s">
         <v>122</v>
       </c>
-      <c r="AEK1" t="s">
+      <c r="AKX1" t="s">
         <v>123</v>
       </c>
-      <c r="AEL1" t="s">
+      <c r="AKY1" t="s">
         <v>124</v>
       </c>
-      <c r="AEM1" t="s">
+      <c r="AKZ1" t="s">
         <v>125</v>
       </c>
-      <c r="AEN1" t="s">
+      <c r="ALA1" t="s">
         <v>126</v>
       </c>
-      <c r="AEO1" t="s">
+      <c r="ALB1" t="s">
         <v>127</v>
       </c>
-      <c r="AEP1" t="s">
+      <c r="ALC1" t="s">
         <v>128</v>
       </c>
-      <c r="AEQ1" t="s">
+      <c r="ALD1" t="s">
         <v>129</v>
       </c>
-      <c r="AER1" t="s">
+      <c r="ALE1" t="s">
         <v>130</v>
       </c>
-      <c r="AES1" t="s">
+      <c r="ALF1" t="s">
         <v>131</v>
       </c>
-      <c r="AET1" t="s">
+      <c r="ALG1" t="s">
         <v>132</v>
       </c>
-      <c r="AEU1" t="s">
+      <c r="ALH1" t="s">
         <v>133</v>
       </c>
-      <c r="AEV1" t="s">
+      <c r="ALI1" t="s">
         <v>134</v>
       </c>
-      <c r="AEW1" t="s">
+      <c r="ALJ1" t="s">
         <v>135</v>
       </c>
-      <c r="AEX1" t="s">
+      <c r="ALK1" t="s">
         <v>136</v>
       </c>
-      <c r="AEY1" t="s">
+      <c r="ALL1" t="s">
         <v>137</v>
       </c>
-      <c r="AEZ1" t="s">
+      <c r="ALM1" t="s">
         <v>138</v>
       </c>
-      <c r="AFA1" t="s">
+      <c r="ALN1" t="s">
         <v>139</v>
       </c>
-      <c r="AFB1" t="s">
+      <c r="ALO1" t="s">
         <v>140</v>
       </c>
-      <c r="AFC1" t="s">
+      <c r="ALP1" t="s">
         <v>141</v>
       </c>
-      <c r="AFD1" t="s">
+      <c r="ALQ1" t="s">
         <v>142</v>
       </c>
-      <c r="AFE1" t="s">
+      <c r="ALR1" t="s">
         <v>143</v>
       </c>
-      <c r="AFF1" t="s">
+      <c r="ALS1" t="s">
         <v>144</v>
       </c>
-      <c r="AFG1" t="s">
+      <c r="ALT1" t="s">
         <v>145</v>
       </c>
-      <c r="AFH1" t="s">
+      <c r="ALU1" t="s">
         <v>146</v>
       </c>
-      <c r="AFI1" t="s">
+      <c r="ALV1" t="s">
         <v>147</v>
       </c>
-      <c r="AFJ1" t="s">
+      <c r="ALW1" t="s">
         <v>148</v>
       </c>
-      <c r="AFK1" t="s">
+      <c r="ALX1" t="s">
         <v>149</v>
       </c>
-      <c r="AFL1" t="s">
+      <c r="ALY1" t="s">
         <v>150</v>
       </c>
-      <c r="AFM1" t="s">
+      <c r="ALZ1" t="s">
         <v>151</v>
       </c>
-      <c r="AFN1" t="s">
+      <c r="AMA1" t="s">
         <v>152</v>
       </c>
-      <c r="AFO1" t="s">
+      <c r="AMB1" t="s">
         <v>20</v>
       </c>
-      <c r="AFP1" t="s">
+      <c r="AMC1" t="s">
         <v>153</v>
       </c>
-      <c r="AFQ1" t="s">
+      <c r="AMD1" t="s">
         <v>154</v>
       </c>
-      <c r="AFR1" t="s">
+      <c r="AME1" t="s">
         <v>155</v>
       </c>
-      <c r="AFS1" t="s">
+      <c r="AMF1" t="s">
         <v>156</v>
       </c>
-      <c r="AFT1" t="s">
+      <c r="AMG1" t="s">
         <v>157</v>
       </c>
-      <c r="AFU1" t="s">
+      <c r="AMH1" t="s">
         <v>158</v>
       </c>
-      <c r="AFV1" t="s">
+      <c r="AMI1" t="s">
         <v>159</v>
       </c>
-      <c r="AFW1" t="s">
+      <c r="AMJ1" t="s">
         <v>160</v>
       </c>
-      <c r="AFX1" t="s">
+      <c r="AMK1" t="s">
         <v>161</v>
       </c>
-      <c r="AFY1" t="s">
+      <c r="AML1" t="s">
         <v>162</v>
       </c>
-      <c r="AFZ1" t="s">
+      <c r="AMM1" t="s">
         <v>163</v>
       </c>
-      <c r="AGA1" t="s">
+      <c r="AMN1" t="s">
         <v>164</v>
       </c>
-      <c r="AGB1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AGC1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AGD1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AGE1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AGF1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AGG1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AGH1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AGI1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AGJ1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AGK1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AGL1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AGM1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AGN1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AGO1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AGP1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AGQ1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AGR1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AGS1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AGT1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AGU1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AGV1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AGW1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AGX1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AGY1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AGZ1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AHA1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AHB1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AHC1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AHD1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AHE1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AHF1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AHG1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AHH1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AHI1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AHJ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AHK1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AHL1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AHM1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AHN1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AHO1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AHP1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AHQ1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AHR1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AHS1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AHT1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AHU1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AHV1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AHW1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AHX1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AHY1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AHZ1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AIA1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AIB1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AIC1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AID1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AIE1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AIF1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AIG1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AIH1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AII1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AIJ1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AIK1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AIL1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AIM1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AIN1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AIO1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AIP1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AIQ1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AIR1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AIS1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AIT1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AIU1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AIV1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AIW1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AIX1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AIY1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AIZ1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJA1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJB1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJC1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJD1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJE1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJF1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJG1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJH1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJI1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJJ1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJK1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJL1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJM1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJN1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJO1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJP1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJQ1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJR1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJS1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJT1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJU1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJV1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJW1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJX1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJY1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJZ1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AKA1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AKB1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AKC1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AKD1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AKE1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AKF1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AKG1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AKH1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AKI1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AKJ1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AKK1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AKL1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AKM1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AKN1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AKO1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AKP1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AKQ1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AKR1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AKS1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AKT1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AKU1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AKV1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AKW1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AKX1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AKY1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AKZ1" t="s">
-        <v>124</v>
-      </c>
-      <c r="ALA1" t="s">
-        <v>125</v>
-      </c>
-      <c r="ALB1" t="s">
-        <v>126</v>
-      </c>
-      <c r="ALC1" t="s">
-        <v>127</v>
-      </c>
-      <c r="ALD1" t="s">
-        <v>128</v>
-      </c>
-      <c r="ALE1" t="s">
-        <v>129</v>
-      </c>
-      <c r="ALF1" t="s">
-        <v>130</v>
-      </c>
-      <c r="ALG1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ALH1" t="s">
-        <v>132</v>
-      </c>
-      <c r="ALI1" t="s">
-        <v>133</v>
-      </c>
-      <c r="ALJ1" t="s">
-        <v>134</v>
-      </c>
-      <c r="ALK1" t="s">
-        <v>135</v>
-      </c>
-      <c r="ALL1" t="s">
-        <v>136</v>
-      </c>
-      <c r="ALM1" t="s">
-        <v>137</v>
-      </c>
-      <c r="ALN1" t="s">
-        <v>138</v>
-      </c>
-      <c r="ALO1" t="s">
-        <v>139</v>
-      </c>
-      <c r="ALP1" t="s">
-        <v>140</v>
-      </c>
-      <c r="ALQ1" t="s">
-        <v>141</v>
-      </c>
-      <c r="ALR1" t="s">
-        <v>142</v>
-      </c>
-      <c r="ALS1" t="s">
-        <v>143</v>
-      </c>
-      <c r="ALT1" t="s">
-        <v>144</v>
-      </c>
-      <c r="ALU1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ALV1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ALW1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ALX1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ALY1" t="s">
-        <v>149</v>
-      </c>
-      <c r="ALZ1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AMA1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AMB1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AMC1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AMD1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AME1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AMF1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AMG1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AMH1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AMI1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AMJ1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AMK1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AML1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AMM1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AMN1" t="s">
-        <v>163</v>
-      </c>
       <c r="AMO1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AMP1" t="s">
         <v>166</v>
       </c>
-      <c r="AMQ1" t="s">
+    </row>
+    <row r="2" spans="1:1030" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>42376</v>
+      </c>
+      <c r="J2" s="2">
+        <v>42376</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="L2" s="2">
+        <v>42377</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="N2" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="O2" s="1">
+        <v>128</v>
+      </c>
+      <c r="P2" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>148</v>
+      </c>
+      <c r="R2" s="1">
+        <v>101</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>120</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>42376</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>0.72361111111111109</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>42376</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS2" s="1">
+        <v>2</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW2" s="2">
+        <v>42376</v>
+      </c>
+      <c r="DX2" s="3">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DZ2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="EA2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="EB2" s="2">
+        <v>42376</v>
+      </c>
+      <c r="EC2" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="ES2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FC2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FD2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FF2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FG2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FH2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FK2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FM2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FP2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FQ2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FR2" s="1">
+        <v>3</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="FT2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="FU2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="FV2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AMP2" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="2" spans="1:1031" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1030" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>42376</v>
-      </c>
-      <c r="J2" s="1">
-        <v>42376</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.5395833333333333</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="D3" s="2">
+        <v>2958352</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2958352</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" s="2">
         <v>42377</v>
       </c>
-      <c r="M2" s="2">
-        <v>0.92361111111111116</v>
-      </c>
-      <c r="N2">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="O2">
+      <c r="M3" s="3">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="O3" s="1">
+        <v>118</v>
+      </c>
+      <c r="P3" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>124</v>
+      </c>
+      <c r="R3" s="1">
+        <v>98</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>999</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>150</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>129</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="ES3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="FA3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FF3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FG3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FH3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FK3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FO3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FQ3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FR3" s="1">
+        <v>2</v>
+      </c>
+      <c r="FS3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="FV3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AMP3" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1030" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>42377</v>
+      </c>
+      <c r="J4" s="2">
+        <v>42377</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="L4" s="2">
+        <v>42377</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.93194444444444446</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>96</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>250</v>
+      </c>
+      <c r="R4" s="1">
+        <v>97</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>999</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>998</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>999</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>999</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>999</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CX4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="ES4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FA4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FB4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FC4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FD4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FE4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FF4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FG4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FH4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FK4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FM4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FN4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FQ4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="FS4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="FV4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="FW4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AMP4" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1030" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>42377</v>
+      </c>
+      <c r="J5" s="2">
+        <v>42377</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="N5" s="1">
+        <v>38.9</v>
+      </c>
+      <c r="O5" s="1">
+        <v>108</v>
+      </c>
+      <c r="P5" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="1">
         <v>128</v>
       </c>
-      <c r="P2">
-        <v>20</v>
-      </c>
-      <c r="Q2">
-        <v>148</v>
-      </c>
-      <c r="R2">
-        <v>100</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="R5" s="1">
+        <v>97</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>999</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>135</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>601</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AE5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>42377</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>42377</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0.94861111111111107</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>42377</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>42379</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CX5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CY5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CZ5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DB5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DD5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DN5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DR5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS5" s="1">
+        <v>2</v>
+      </c>
+      <c r="DT5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DU5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DV5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="DW5" s="2">
+        <v>42377</v>
+      </c>
+      <c r="DX5" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="DY5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="DZ5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="EA5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="EB5" s="2">
+        <v>42377</v>
+      </c>
+      <c r="EC5" s="3">
+        <v>0.94374999999999998</v>
+      </c>
+      <c r="ES5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="ET5" s="1">
+        <v>1</v>
+      </c>
+      <c r="EU5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="EV5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="FA5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FB5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Y2">
+      <c r="FC5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FD5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FE5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FF5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FG5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FH5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FK5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FM5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FN5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FP5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FR5" s="1">
+        <v>2</v>
+      </c>
+      <c r="FS5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="FT5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="FV5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="FW5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AMP5" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1030" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42378</v>
+      </c>
+      <c r="J6" s="2">
+        <v>42378</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="L6" s="2">
+        <v>42378</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="N6" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P6" s="1">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>40</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>141</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>95</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>71</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DD6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DN6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DR6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS6" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DU6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DV6" s="1">
         <v>999</v>
       </c>
-      <c r="Z2">
-        <v>15</v>
-      </c>
-      <c r="AA2">
-        <v>135</v>
-      </c>
-      <c r="AB2">
-        <v>116</v>
-      </c>
-      <c r="AC2">
-        <v>42.5</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE2">
+      <c r="DW6" s="2">
+        <v>42378</v>
+      </c>
+      <c r="DX6" s="3">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="ES6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="ET6" s="1">
         <v>1</v>
       </c>
-      <c r="AF2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>42376</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>0.72361111111111109</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>42376</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>0.80625000000000002</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="EU6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="EV6" s="1">
+        <v>999</v>
+      </c>
+      <c r="FA6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FB6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="CX2" t="s">
-        <v>172</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>170</v>
-      </c>
-      <c r="CZ2" t="s">
+      <c r="FC6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FD6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FE6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FF6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FG6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FH6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FK6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FM6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FN6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FP6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FQ6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FR6" s="1">
+        <v>1</v>
+      </c>
+      <c r="FS6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="FV6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="FW6" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="DA2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>170</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>176</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS2">
-        <v>2</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>177</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>178</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>179</v>
-      </c>
-      <c r="DW2" s="1">
-        <v>42376</v>
-      </c>
-      <c r="DX2" s="2">
-        <v>0.72569444444444453</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>180</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>178</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>181</v>
-      </c>
-      <c r="EB2" s="1">
-        <v>42376</v>
-      </c>
-      <c r="EC2" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>182</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>172</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>172</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>171</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>170</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>172</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>170</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>170</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>170</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>170</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>170</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>170</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>172</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>170</v>
-      </c>
-      <c r="FR2">
-        <v>3</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>183</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>184</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>185</v>
-      </c>
-      <c r="FV2" t="s">
+      <c r="AMP6" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="AMQ2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1031" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2958352</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2958352</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L3" s="1">
-        <v>42377</v>
-      </c>
-      <c r="M3" s="2">
-        <v>5.2777777777777778E-2</v>
-      </c>
-      <c r="N3">
-        <v>36.6</v>
-      </c>
-      <c r="O3">
-        <v>118</v>
-      </c>
-      <c r="P3">
-        <v>18</v>
-      </c>
-      <c r="Q3">
-        <v>124</v>
-      </c>
-      <c r="R3">
-        <v>98</v>
-      </c>
-      <c r="S3" t="s">
-        <v>170</v>
-      </c>
-      <c r="V3" t="s">
-        <v>171</v>
-      </c>
-      <c r="W3" t="s">
-        <v>171</v>
-      </c>
-      <c r="X3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y3">
-        <v>999</v>
-      </c>
-      <c r="Z3">
-        <v>8</v>
-      </c>
-      <c r="AA3">
-        <v>137</v>
-      </c>
-      <c r="AB3">
-        <v>129</v>
-      </c>
-      <c r="AC3">
-        <v>35.4</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>170</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>170</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>170</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>176</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>170</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>182</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>170</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>170</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>170</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>170</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>170</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>171</v>
-      </c>
-      <c r="FN3" t="s">
-        <v>171</v>
-      </c>
-      <c r="FO3" t="s">
-        <v>171</v>
-      </c>
-      <c r="FP3" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ3" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR3">
-        <v>1</v>
-      </c>
-      <c r="FS3" t="s">
-        <v>189</v>
-      </c>
-      <c r="FV3" t="s">
-        <v>190</v>
-      </c>
-      <c r="FW3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AMQ3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1031" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>42377</v>
-      </c>
-      <c r="J4" s="1">
-        <v>42377</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.42222222222222222</v>
-      </c>
-      <c r="L4" s="1">
-        <v>42377</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.93194444444444446</v>
-      </c>
-      <c r="N4">
-        <v>36.5</v>
-      </c>
-      <c r="O4">
-        <v>96</v>
-      </c>
-      <c r="P4">
-        <v>18</v>
-      </c>
-      <c r="Q4">
-        <v>155</v>
-      </c>
-      <c r="R4">
-        <v>97</v>
-      </c>
-      <c r="S4" t="s">
-        <v>170</v>
-      </c>
-      <c r="V4" t="s">
-        <v>171</v>
-      </c>
-      <c r="W4" t="s">
-        <v>171</v>
-      </c>
-      <c r="X4" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y4">
-        <v>999</v>
-      </c>
-      <c r="Z4">
-        <v>999</v>
-      </c>
-      <c r="AA4">
-        <v>999</v>
-      </c>
-      <c r="AB4">
-        <v>999</v>
-      </c>
-      <c r="AC4">
-        <v>999</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>170</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>170</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>170</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>170</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>170</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>172</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FR4">
-        <v>1</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>193</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>194</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AMQ4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1031" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>42377</v>
-      </c>
-      <c r="J5" s="1">
-        <v>42377</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.6743055555555556</v>
-      </c>
-      <c r="L5" s="1">
-        <v>42378</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.34236111111111112</v>
-      </c>
-      <c r="N5">
-        <v>38.9</v>
-      </c>
-      <c r="O5">
-        <v>108</v>
-      </c>
-      <c r="P5">
-        <v>18</v>
-      </c>
-      <c r="Q5">
-        <v>128</v>
-      </c>
-      <c r="R5">
-        <v>97</v>
-      </c>
-      <c r="S5" t="s">
-        <v>170</v>
-      </c>
-      <c r="V5" t="s">
-        <v>171</v>
-      </c>
-      <c r="W5" t="s">
-        <v>171</v>
-      </c>
-      <c r="X5" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y5">
-        <v>999</v>
-      </c>
-      <c r="Z5">
-        <v>12</v>
-      </c>
-      <c r="AA5">
-        <v>135</v>
-      </c>
-      <c r="AB5">
-        <v>109</v>
-      </c>
-      <c r="AC5">
-        <v>45.6</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE5">
-        <v>2</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>42377</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>42377</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>0.94861111111111107</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>42377</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>0.9506944444444444</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>42379</v>
-      </c>
-      <c r="AW5" s="2">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>170</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>172</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>170</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>170</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>170</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>170</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>170</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>170</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>170</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS5">
-        <v>2</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>198</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>199</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>200</v>
-      </c>
-      <c r="DW5" s="1">
-        <v>42377</v>
-      </c>
-      <c r="DX5" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>201</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>178</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>200</v>
-      </c>
-      <c r="EB5" s="1">
-        <v>42377</v>
-      </c>
-      <c r="EC5" s="2">
-        <v>0.94374999999999998</v>
-      </c>
-      <c r="ES5" t="s">
-        <v>172</v>
-      </c>
-      <c r="ET5">
-        <v>1</v>
-      </c>
-      <c r="EU5" t="s">
-        <v>198</v>
-      </c>
-      <c r="EV5" t="s">
-        <v>200</v>
-      </c>
-      <c r="FA5" t="s">
-        <v>172</v>
-      </c>
-      <c r="FB5" t="s">
-        <v>171</v>
-      </c>
-      <c r="FC5" t="s">
-        <v>172</v>
-      </c>
-      <c r="FD5" t="s">
-        <v>170</v>
-      </c>
-      <c r="FE5" t="s">
-        <v>172</v>
-      </c>
-      <c r="FF5" t="s">
-        <v>170</v>
-      </c>
-      <c r="FG5" t="s">
-        <v>170</v>
-      </c>
-      <c r="FH5" t="s">
-        <v>170</v>
-      </c>
-      <c r="FK5" t="s">
-        <v>170</v>
-      </c>
-      <c r="FM5" t="s">
-        <v>170</v>
-      </c>
-      <c r="FN5" t="s">
-        <v>170</v>
-      </c>
-      <c r="FO5" t="s">
-        <v>172</v>
-      </c>
-      <c r="FP5" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ5" t="s">
-        <v>170</v>
-      </c>
-      <c r="FR5">
-        <v>2</v>
-      </c>
-      <c r="FS5" t="s">
-        <v>202</v>
-      </c>
-      <c r="FT5" t="s">
-        <v>203</v>
-      </c>
-      <c r="FV5" t="s">
-        <v>194</v>
-      </c>
-      <c r="FX5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AMQ5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1031" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>42378</v>
-      </c>
-      <c r="J6" s="1">
-        <v>42378</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.35069444444444442</v>
-      </c>
-      <c r="L6" s="1">
-        <v>42378</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.83680555555555547</v>
-      </c>
-      <c r="N6">
-        <v>35.5</v>
-      </c>
-      <c r="O6">
-        <v>74</v>
-      </c>
-      <c r="P6">
-        <v>18</v>
-      </c>
-      <c r="Q6">
-        <v>139</v>
-      </c>
-      <c r="R6">
-        <v>98</v>
-      </c>
-      <c r="S6" t="s">
-        <v>170</v>
-      </c>
-      <c r="V6" t="s">
-        <v>171</v>
-      </c>
-      <c r="W6" t="s">
-        <v>171</v>
-      </c>
-      <c r="X6" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y6">
-        <v>999</v>
-      </c>
-      <c r="Z6">
-        <v>11</v>
-      </c>
-      <c r="AA6">
-        <v>141</v>
-      </c>
-      <c r="AB6">
-        <v>95</v>
-      </c>
-      <c r="AC6">
-        <v>44.1</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>170</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>170</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>170</v>
-      </c>
-      <c r="DN6" t="s">
-        <v>170</v>
-      </c>
-      <c r="DR6" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS6">
-        <v>1</v>
-      </c>
-      <c r="DT6" t="s">
-        <v>198</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>199</v>
-      </c>
-      <c r="DV6">
-        <v>999</v>
-      </c>
-      <c r="DW6" s="1">
-        <v>42378</v>
-      </c>
-      <c r="DX6" s="2">
-        <v>0.58888888888888891</v>
-      </c>
-      <c r="ES6" t="s">
-        <v>172</v>
-      </c>
-      <c r="ET6">
-        <v>1</v>
-      </c>
-      <c r="EU6" t="s">
-        <v>198</v>
-      </c>
-      <c r="EV6">
-        <v>999</v>
-      </c>
-      <c r="FA6" t="s">
-        <v>172</v>
-      </c>
-      <c r="FB6" t="s">
-        <v>171</v>
-      </c>
-      <c r="FC6" t="s">
-        <v>170</v>
-      </c>
-      <c r="FD6" t="s">
-        <v>170</v>
-      </c>
-      <c r="FE6" t="s">
-        <v>170</v>
-      </c>
-      <c r="FF6" t="s">
-        <v>170</v>
-      </c>
-      <c r="FG6" t="s">
-        <v>170</v>
-      </c>
-      <c r="FH6" t="s">
-        <v>170</v>
-      </c>
-      <c r="FK6" t="s">
-        <v>170</v>
-      </c>
-      <c r="FM6" t="s">
-        <v>170</v>
-      </c>
-      <c r="FN6" t="s">
-        <v>170</v>
-      </c>
-      <c r="FO6" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP6" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ6" t="s">
-        <v>170</v>
-      </c>
-      <c r="FR6">
-        <v>1</v>
-      </c>
-      <c r="FS6" t="s">
-        <v>205</v>
-      </c>
-      <c r="FV6" t="s">
-        <v>194</v>
-      </c>
-      <c r="FX6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AMQ6" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
